--- a/Validation/test.xlsx
+++ b/Validation/test.xlsx
@@ -21,7 +21,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">sample.one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample.one.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample.two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample.three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample.three.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X12</t>
+  </si>
   <si>
     <t xml:space="preserve">X3</t>
   </si>
@@ -39,18 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">X8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X12</t>
   </si>
 </sst>
 </file>
@@ -686,22 +704,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -988,22 +1006,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1290,22 +1308,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1592,22 +1610,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1894,22 +1912,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -2196,22 +2214,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -2498,22 +2516,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -2800,22 +2818,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -3102,22 +3120,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
